--- a/Sample-Sheets/Client  User B Client-ID 902 .xlsx
+++ b/Sample-Sheets/Client  User B Client-ID 902 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahes\Downloads\HOLD MANAGER SAMPLE EXCELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A2B14-0D26-4067-81BD-3517580C274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7F79CC-4E12-4CCF-81E2-8393EC17A880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Statement of Holding 01-07-2025</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>DP ID XXXXXX21</t>
+  </si>
+  <si>
+    <t>Safekeep</t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -246,6 +249,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -301,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -342,6 +351,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,19 +646,19 @@
     <col min="3" max="3" width="11"/>
     <col min="4" max="4" width="9"/>
     <col min="5" max="5" width="15"/>
-    <col min="6" max="6" width="9"/>
-    <col min="7" max="7" width="8"/>
-    <col min="8" max="8" width="13"/>
-    <col min="9" max="9" width="11"/>
-    <col min="10" max="10" width="12"/>
-    <col min="11" max="11" width="17"/>
-    <col min="12" max="12" width="15"/>
-    <col min="13" max="13" width="17"/>
-    <col min="14" max="14" width="20"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9"/>
+    <col min="8" max="8" width="8"/>
+    <col min="9" max="9" width="13"/>
+    <col min="10" max="10" width="11"/>
+    <col min="11" max="11" width="12"/>
+    <col min="12" max="12" width="17"/>
+    <col min="13" max="13" width="15"/>
+    <col min="14" max="14" width="17"/>
+    <col min="15" max="15" width="20"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -664,8 +674,9 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -683,8 +694,9 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>58</v>
       </c>
@@ -702,8 +714,9 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>57</v>
       </c>
@@ -721,8 +734,9 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -740,8 +754,9 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -758,37 +773,40 @@
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -804,7 +822,7 @@
       <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="G7" s="7">
@@ -814,26 +832,29 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>200</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>297.01604180560719</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>59403.20836112144</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -849,7 +870,7 @@
       <c r="E8" s="7">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="14">
         <v>0</v>
       </c>
       <c r="G8" s="7">
@@ -859,26 +880,29 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>208</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>724.48973852946949</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>150693.8656141297</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -894,7 +918,7 @@
       <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="14">
         <v>0</v>
       </c>
       <c r="G9" s="7">
@@ -904,26 +928,29 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
         <v>290</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>135.85535525034609</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>39398.053022600383</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -939,7 +966,7 @@
       <c r="E10" s="7">
         <v>0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="14">
         <v>0</v>
       </c>
       <c r="G10" s="7">
@@ -949,26 +976,29 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
         <v>774</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>333.98499293467393</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <v>258504.38453143759</v>
       </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -984,7 +1014,7 @@
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="14">
         <v>0</v>
       </c>
       <c r="G11" s="7">
@@ -994,26 +1024,29 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
         <v>366</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>219.1510107256365</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>80209.26992558295</v>
       </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +1062,7 @@
       <c r="E12" s="7">
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="14">
         <v>0</v>
       </c>
       <c r="G12" s="7">
@@ -1039,26 +1072,29 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
         <v>257</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>616.45815591357484</v>
       </c>
-      <c r="K12" s="7">
+      <c r="L12" s="7">
         <v>158429.7460697887</v>
       </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1110,7 @@
       <c r="E13" s="7">
         <v>0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="14">
         <v>0</v>
       </c>
       <c r="G13" s="7">
@@ -1084,26 +1120,29 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
         <v>976</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>580.61820253613348</v>
       </c>
-      <c r="K13" s="7">
+      <c r="L13" s="7">
         <v>566683.36567526625</v>
       </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -1119,7 +1158,7 @@
       <c r="E14" s="7">
         <v>0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="14">
         <v>0</v>
       </c>
       <c r="G14" s="7">
@@ -1129,26 +1168,29 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
         <v>938</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>507.64072304013848</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>476166.99821164989</v>
       </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1164,7 +1206,7 @@
       <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="14">
         <v>0</v>
       </c>
       <c r="G15" s="7">
@@ -1174,26 +1216,29 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
         <v>785</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>929.51591095635979</v>
       </c>
-      <c r="K15" s="7">
+      <c r="L15" s="7">
         <v>729669.99010074243</v>
       </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1254,7 @@
       <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="14">
         <v>0</v>
       </c>
       <c r="G16" s="7">
@@ -1219,26 +1264,29 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
         <v>816</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>342.01830978369918</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L16" s="7">
         <v>279086.94078349852</v>
       </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -1254,7 +1302,7 @@
       <c r="E17" s="7">
         <v>0</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="14">
         <v>0</v>
       </c>
       <c r="G17" s="7">
@@ -1264,26 +1312,29 @@
         <v>0</v>
       </c>
       <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
         <v>88</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="7">
         <v>139.05813790540799</v>
       </c>
-      <c r="K17" s="7">
+      <c r="L17" s="7">
         <v>12237.1161356759</v>
       </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
       </c>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1299,7 +1350,7 @@
       <c r="E18" s="7">
         <v>0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="14">
         <v>0</v>
       </c>
       <c r="G18" s="7">
@@ -1309,26 +1360,29 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
         <v>87</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="7">
         <v>592.3185091715394</v>
       </c>
-      <c r="K18" s="7">
+      <c r="L18" s="7">
         <v>51531.710297923928</v>
       </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
       </c>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -1344,7 +1398,7 @@
       <c r="E19" s="7">
         <v>0</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="14">
         <v>0</v>
       </c>
       <c r="G19" s="7">
@@ -1354,26 +1408,29 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
         <v>217</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>603.05335907513279</v>
       </c>
-      <c r="K19" s="7">
+      <c r="L19" s="7">
         <v>130862.57891930381</v>
       </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7">
         <v>0</v>
       </c>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1446,7 @@
       <c r="E20" s="7">
         <v>0</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="14">
         <v>0</v>
       </c>
       <c r="G20" s="7">
@@ -1399,26 +1456,29 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
         <v>615</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>757.45767552518566</v>
       </c>
-      <c r="K20" s="7">
+      <c r="L20" s="7">
         <v>465836.47044798918</v>
       </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
       </c>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -1434,7 +1494,7 @@
       <c r="E21" s="7">
         <v>0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="14">
         <v>0</v>
       </c>
       <c r="G21" s="7">
@@ -1444,26 +1504,29 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
         <v>570</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>135.96742916665281</v>
       </c>
-      <c r="K21" s="7">
+      <c r="L21" s="7">
         <v>77501.434624992093</v>
       </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7">
         <v>0</v>
       </c>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -1479,7 +1542,7 @@
       <c r="E22" s="7">
         <v>0</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="14">
         <v>0</v>
       </c>
       <c r="G22" s="7">
@@ -1489,26 +1552,29 @@
         <v>0</v>
       </c>
       <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
         <v>973</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>638.58829096459579</v>
       </c>
-      <c r="K22" s="7">
+      <c r="L22" s="7">
         <v>621346.40710855171</v>
       </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
       <c r="N22" s="7">
         <v>0</v>
       </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -1524,7 +1590,7 @@
       <c r="E23" s="7">
         <v>0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="14">
         <v>0</v>
       </c>
       <c r="G23" s="7">
@@ -1534,26 +1600,29 @@
         <v>0</v>
       </c>
       <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
         <v>223</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>56.144560357394212</v>
       </c>
-      <c r="K23" s="7">
+      <c r="L23" s="7">
         <v>12520.23695969891</v>
       </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
       <c r="N23" s="7">
         <v>0</v>
       </c>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -1569,7 +1638,7 @@
       <c r="E24" s="7">
         <v>0</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="14">
         <v>0</v>
       </c>
       <c r="G24" s="7">
@@ -1579,26 +1648,29 @@
         <v>0</v>
       </c>
       <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
         <v>500</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
         <v>884.89199068872676</v>
       </c>
-      <c r="K24" s="7">
+      <c r="L24" s="7">
         <v>442445.99534436339</v>
       </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
       <c r="N24" s="7">
         <v>0</v>
       </c>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
@@ -1614,7 +1686,7 @@
       <c r="E25" s="7">
         <v>0</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="14">
         <v>0</v>
       </c>
       <c r="G25" s="7">
@@ -1624,26 +1696,29 @@
         <v>0</v>
       </c>
       <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
         <v>686</v>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
         <v>360.98902940169359</v>
       </c>
-      <c r="K25" s="7">
+      <c r="L25" s="7">
         <v>247638.47416956181</v>
       </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
       <c r="N25" s="7">
         <v>0</v>
       </c>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>55</v>
       </c>
@@ -1659,7 +1734,7 @@
       <c r="E26" s="7">
         <v>0</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="14">
         <v>0</v>
       </c>
       <c r="G26" s="7">
@@ -1669,26 +1744,29 @@
         <v>0</v>
       </c>
       <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
         <v>391</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>138.49748035564261</v>
       </c>
-      <c r="K26" s="7">
+      <c r="L26" s="7">
         <v>54152.514819056261</v>
       </c>
-      <c r="L26" s="7">
-        <v>0</v>
-      </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
       <c r="N26" s="7">
         <v>0</v>
       </c>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -1698,14 +1776,15 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="4"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -1715,14 +1794,15 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="3"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -1732,14 +1812,15 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="4"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -1749,14 +1830,15 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -1766,14 +1848,15 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="4"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -1783,14 +1866,15 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="3"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1800,20 +1884,21 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
